--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Bmp15</t>
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H2">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>4.093499884154665</v>
+        <v>0.03997600070133333</v>
       </c>
       <c r="R2">
-        <v>36.841498957392</v>
+        <v>0.359784006312</v>
       </c>
       <c r="S2">
-        <v>0.160764128269069</v>
+        <v>0.00150051236203325</v>
       </c>
       <c r="T2">
-        <v>0.160764128269069</v>
+        <v>0.00150051236203325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H3">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>12.05225142734755</v>
+        <v>0.8090152230715556</v>
       </c>
       <c r="R3">
-        <v>108.470262846128</v>
+        <v>7.281137007644</v>
       </c>
       <c r="S3">
-        <v>0.47332838627826</v>
+        <v>0.03036665304169529</v>
       </c>
       <c r="T3">
-        <v>0.47332838627826</v>
+        <v>0.03036665304169529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H4">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,400 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>9.317017828784</v>
+        <v>0.531076824708</v>
       </c>
       <c r="R4">
-        <v>83.853160459056</v>
+        <v>4.779691422372</v>
       </c>
       <c r="S4">
-        <v>0.365907485452671</v>
+        <v>0.01993414365327297</v>
       </c>
       <c r="T4">
-        <v>0.365907485452671</v>
+        <v>0.01993414365327297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.238096</v>
+      </c>
+      <c r="I5">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J5">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.443038</v>
+      </c>
+      <c r="N5">
+        <v>4.329114</v>
+      </c>
+      <c r="O5">
+        <v>0.0289666880885598</v>
+      </c>
+      <c r="P5">
+        <v>0.0289666880885598</v>
+      </c>
+      <c r="Q5">
+        <v>0.5955398585493333</v>
+      </c>
+      <c r="R5">
+        <v>5.359858726944</v>
+      </c>
+      <c r="S5">
+        <v>0.02235378487490879</v>
+      </c>
+      <c r="T5">
+        <v>0.02235378487490878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.238096</v>
+      </c>
+      <c r="I6">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J6">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>29.20351433333333</v>
+      </c>
+      <c r="N6">
+        <v>87.61054300000001</v>
+      </c>
+      <c r="O6">
+        <v>0.5862140087672342</v>
+      </c>
+      <c r="P6">
+        <v>0.5862140087672342</v>
+      </c>
+      <c r="Q6">
+        <v>12.05225142734756</v>
+      </c>
+      <c r="R6">
+        <v>108.470262846128</v>
+      </c>
+      <c r="S6">
+        <v>0.452385229632656</v>
+      </c>
+      <c r="T6">
+        <v>0.452385229632656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.238096</v>
+      </c>
+      <c r="I7">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J7">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>19.170603</v>
+      </c>
+      <c r="N7">
+        <v>57.511809</v>
+      </c>
+      <c r="O7">
+        <v>0.384819303144206</v>
+      </c>
+      <c r="P7">
+        <v>0.384819303144206</v>
+      </c>
+      <c r="Q7">
+        <v>7.911682297296001</v>
+      </c>
+      <c r="R7">
+        <v>71.205140675664</v>
+      </c>
+      <c r="S7">
+        <v>0.2969676026440614</v>
+      </c>
+      <c r="T7">
+        <v>0.2969676026440613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.283157</v>
+      </c>
+      <c r="I8">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J8">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.443038</v>
+      </c>
+      <c r="N8">
+        <v>4.329114</v>
+      </c>
+      <c r="O8">
+        <v>0.0289666880885598</v>
+      </c>
+      <c r="P8">
+        <v>0.0289666880885598</v>
+      </c>
+      <c r="Q8">
+        <v>0.1362021036553333</v>
+      </c>
+      <c r="R8">
+        <v>1.225818932898</v>
+      </c>
+      <c r="S8">
+        <v>0.005112390851617764</v>
+      </c>
+      <c r="T8">
+        <v>0.005112390851617763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.283157</v>
+      </c>
+      <c r="I9">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J9">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>29.20351433333333</v>
+      </c>
+      <c r="N9">
+        <v>87.61054300000001</v>
+      </c>
+      <c r="O9">
+        <v>0.5862140087672342</v>
+      </c>
+      <c r="P9">
+        <v>0.5862140087672342</v>
+      </c>
+      <c r="Q9">
+        <v>2.756393169361222</v>
+      </c>
+      <c r="R9">
+        <v>24.807538524251</v>
+      </c>
+      <c r="S9">
+        <v>0.1034621260928829</v>
+      </c>
+      <c r="T9">
+        <v>0.1034621260928829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.283157</v>
+      </c>
+      <c r="I10">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J10">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.170603</v>
+      </c>
+      <c r="N10">
+        <v>57.511809</v>
+      </c>
+      <c r="O10">
+        <v>0.384819303144206</v>
+      </c>
+      <c r="P10">
+        <v>0.384819303144206</v>
+      </c>
+      <c r="Q10">
+        <v>1.809430144557</v>
+      </c>
+      <c r="R10">
+        <v>16.284871301013</v>
+      </c>
+      <c r="S10">
+        <v>0.06791755684687172</v>
+      </c>
+      <c r="T10">
+        <v>0.0679175568468717</v>
       </c>
     </row>
   </sheetData>
